--- a/wcsm8seleniumproject/datafiles/TestData.xlsx
+++ b/wcsm8seleniumproject/datafiles/TestData.xlsx
@@ -10,9 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Username1</t>
   </si>
@@ -65,7 +64,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,12 +386,16 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -404,7 +406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,7 +417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -423,7 +425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -431,7 +433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -439,7 +441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
